--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1197493168274526</v>
+        <v>0.1295766007657061</v>
       </c>
       <c r="H2" t="n">
-        <v>42.78352963895981</v>
+        <v>54.50112707202018</v>
       </c>
       <c r="I2" t="n">
-        <v>-17.00427255946655</v>
+        <v>-19.90039311705729</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09409004060242046</v>
+        <v>0.08654585096470094</v>
       </c>
       <c r="H3" t="n">
-        <v>-19.13587034051209</v>
+        <v>-25.61959938488688</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0449143360926891</v>
+        <v>-0.01514577055578493</v>
       </c>
       <c r="H4" t="n">
-        <v>191.1735779506503</v>
+        <v>1.812013998235429</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06275058998964467</v>
+        <v>-0.01055607088495581</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.66648851870942</v>
+        <v>85.30852478071137</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05546451696386624</v>
+        <v>0.0102587413743002</v>
       </c>
       <c r="H6" t="n">
-        <v>56.03735891909477</v>
+        <v>-71.1392616846786</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05520408009282254</v>
+        <v>-0.01844930161503396</v>
       </c>
       <c r="H7" t="n">
-        <v>172.0069606058716</v>
+        <v>-190.9052093462718</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1205229170516643</v>
+        <v>-0.1285538300994089</v>
       </c>
       <c r="H8" t="n">
-        <v>-14.58205980925665</v>
+        <v>8.890328583607266</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.113916525224731</v>
+        <v>-0.1578205217684469</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.78061706282687</v>
+        <v>-15.29254785890846</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07823967872484268</v>
+        <v>-0.08622343307281512</v>
       </c>
       <c r="H10" t="n">
-        <v>-27.57404209933964</v>
+        <v>20.18353301597519</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07576146355128005</v>
+        <v>-0.09963493035276311</v>
       </c>
       <c r="H11" t="n">
-        <v>13.85705217405943</v>
+        <v>-49.73495668883047</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4359457038871791</v>
+        <v>-0.3428913147196478</v>
       </c>
       <c r="H12" t="n">
-        <v>4.99748656295673</v>
+        <v>17.41465533710561</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3614476157031623</v>
+        <v>-0.4179487337133465</v>
       </c>
       <c r="H13" t="n">
-        <v>-19.48137481660094</v>
+        <v>6.894786481650642</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06422460485261033</v>
+        <v>-0.04262981171984808</v>
       </c>
       <c r="H14" t="n">
-        <v>26.58662421071416</v>
+        <v>15.97668886031958</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05307300403143506</v>
+        <v>0.010575109525961</v>
       </c>
       <c r="H15" t="n">
-        <v>-35.81801732424437</v>
+        <v>112.7886391353961</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08776478096556131</v>
+        <v>0.1226285622704251</v>
       </c>
       <c r="H16" t="n">
-        <v>-39.8964753404256</v>
+        <v>-16.02088291793515</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1578866408666411</v>
+        <v>0.1111008878412645</v>
       </c>
       <c r="H17" t="n">
-        <v>28.75936097242307</v>
+        <v>-9.395251913725776</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1543332824488824</v>
+        <v>0.1473807317572547</v>
       </c>
       <c r="H18" t="n">
-        <v>11.4664344100503</v>
+        <v>6.444989758877581</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1250114376894809</v>
+        <v>0.1324612766226856</v>
       </c>
       <c r="H19" t="n">
-        <v>31.02997900171454</v>
+        <v>38.83848242368666</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02740529800151141</v>
+        <v>0.04549785822051627</v>
       </c>
       <c r="H20" t="n">
-        <v>6.909738059053237</v>
+        <v>77.48991834845495</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0530029266514608</v>
+        <v>0.06738738007493135</v>
       </c>
       <c r="H21" t="n">
-        <v>-29.4865468821356</v>
+        <v>-10.34991526230334</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0884409006020935</v>
+        <v>0.07912888497988632</v>
       </c>
       <c r="H24" t="n">
-        <v>-11.9434722810426</v>
+        <v>-21.21501696425947</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1922456780277791</v>
+        <v>0.1737047210155188</v>
       </c>
       <c r="H25" t="n">
-        <v>26.85587254901829</v>
+        <v>14.62137498416663</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07184998831852972</v>
+        <v>0.08933131092336503</v>
       </c>
       <c r="H26" t="n">
-        <v>-9.193996456236746</v>
+        <v>12.89938281290031</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07111611940151225</v>
+        <v>0.07132575000409781</v>
       </c>
       <c r="H27" t="n">
-        <v>-28.77891573148509</v>
+        <v>-28.5689757215738</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.246665397308988</v>
+        <v>-0.2573594666503971</v>
       </c>
       <c r="H28" t="n">
-        <v>15.7405879722627</v>
+        <v>-20.75847003798419</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2151331312142257</v>
+        <v>-0.2338037909518537</v>
       </c>
       <c r="H29" t="n">
-        <v>4.786232754399927</v>
+        <v>-13.88026715952888</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05771427593684087</v>
+        <v>0.07063171359994788</v>
       </c>
       <c r="H30" t="n">
-        <v>30.77753843326044</v>
+        <v>60.0477783006878</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02099465616432311</v>
+        <v>0.03297166118520949</v>
       </c>
       <c r="H31" t="n">
-        <v>-20.27278704554255</v>
+        <v>25.20989304137859</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08980643909445955</v>
+        <v>0.097275197777203</v>
       </c>
       <c r="H32" t="n">
-        <v>-5.427592729498265</v>
+        <v>2.437528024332915</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1387519776497756</v>
+        <v>0.1263673864480193</v>
       </c>
       <c r="H33" t="n">
-        <v>33.46042275692775</v>
+        <v>21.54814009649536</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03343628239965776</v>
+        <v>0.009951934715990065</v>
       </c>
       <c r="H34" t="n">
-        <v>-27.98202654056673</v>
+        <v>-78.56465734798552</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05434627356166202</v>
+        <v>0.01078005874187858</v>
       </c>
       <c r="H35" t="n">
-        <v>617.2979077866231</v>
+        <v>42.28231439995581</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06383686488772938</v>
+        <v>0.04612902812932372</v>
       </c>
       <c r="H36" t="n">
-        <v>10.56635889745168</v>
+        <v>-20.10386649301405</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08843140702663697</v>
+        <v>0.06105204567560074</v>
       </c>
       <c r="H37" t="n">
-        <v>25.74468422313604</v>
+        <v>-13.18728873846296</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01621259436514512</v>
+        <v>0.02943902727003059</v>
       </c>
       <c r="H38" t="n">
-        <v>-69.05190880299588</v>
+        <v>-43.80407723869907</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.01381116351335859</v>
+        <v>-0.006968889235226058</v>
       </c>
       <c r="H39" t="n">
-        <v>-166.6004927450529</v>
+        <v>-133.6055290709452</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>0.003562427437617433</v>
+        <v>-0.001498239553577904</v>
       </c>
       <c r="H40" t="n">
-        <v>-141.9553861053105</v>
+        <v>82.35494756051803</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.005947545630098874</v>
+        <v>0.01033712871504971</v>
       </c>
       <c r="H41" t="n">
-        <v>-116.8219543734926</v>
+        <v>-70.7626105939442</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1409771025731819</v>
+        <v>0.143523481285987</v>
       </c>
       <c r="H42" t="n">
-        <v>5.453802139310871</v>
+        <v>7.358546328619962</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1411239637638103</v>
+        <v>0.1416298539810153</v>
       </c>
       <c r="H43" t="n">
-        <v>-5.270884636605977</v>
+        <v>-4.931307066158563</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.005988947169177176</v>
+        <v>0.004278316780011757</v>
       </c>
       <c r="H44" t="n">
-        <v>-29.63684018886121</v>
+        <v>150.2652434244137</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01114119939866815</v>
+        <v>-0.01443886878337824</v>
       </c>
       <c r="H45" t="n">
-        <v>-201.469365406701</v>
+        <v>-31.50315331535647</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.005286424869530028</v>
+        <v>-0.007487949896170274</v>
       </c>
       <c r="H46" t="n">
-        <v>60.53298423647696</v>
+        <v>-127.3867447873703</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.002615250901735257</v>
+        <v>-0.02997099399722834</v>
       </c>
       <c r="H47" t="n">
-        <v>-71.81380362917244</v>
+        <v>-223.0161670814284</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04898783060084991</v>
+        <v>0.03631718205628851</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.554659751076454</v>
+        <v>-27.75878990861587</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07931305521572928</v>
+        <v>0.05966364319624113</v>
       </c>
       <c r="H49" t="n">
-        <v>20.0534548873332</v>
+        <v>-9.689187014783474</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1584518777414163</v>
+        <v>0.1477215052010647</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.739949732020182</v>
+        <v>-8.394127393011752</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1481014604544856</v>
+        <v>0.172421096467501</v>
       </c>
       <c r="H51" t="n">
-        <v>-13.4491450006984</v>
+        <v>0.7633096485598335</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1929942609715967</v>
+        <v>-0.1686432639670065</v>
       </c>
       <c r="H52" t="n">
-        <v>20.29736087536697</v>
+        <v>-5.118874947397918</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1822104374352929</v>
+        <v>-0.1317493171948181</v>
       </c>
       <c r="H53" t="n">
-        <v>44.5489347252975</v>
+        <v>-4.517741789952728</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1069727187909158</v>
+        <v>0.09058584982275487</v>
       </c>
       <c r="H54" t="n">
-        <v>14.13784140224415</v>
+        <v>-3.346633821976666</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.100832555388634</v>
+        <v>0.1089275019187739</v>
       </c>
       <c r="H55" t="n">
-        <v>-10.83136751230372</v>
+        <v>-3.672813319448658</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>0.004923632021493431</v>
+        <v>0.004812471240225346</v>
       </c>
       <c r="H56" t="n">
-        <v>-167.4398865729742</v>
+        <v>165.9172970603223</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01630037575706811</v>
+        <v>-0.03797900105718639</v>
       </c>
       <c r="H57" t="n">
-        <v>-28.71781662744267</v>
+        <v>-66.08366322420586</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02824676148257806</v>
+        <v>0.04343918477082789</v>
       </c>
       <c r="H58" t="n">
-        <v>-49.90640698930894</v>
+        <v>-22.96374067631849</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0655265927162898</v>
+        <v>0.06198573640409088</v>
       </c>
       <c r="H59" t="n">
-        <v>-8.762656280775733</v>
+        <v>-13.69284280543179</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07130899358934917</v>
+        <v>0.06911924485010899</v>
       </c>
       <c r="H60" t="n">
-        <v>1.907910128317198</v>
+        <v>-1.22146677759126</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07980826136044668</v>
+        <v>0.05555100145432924</v>
       </c>
       <c r="H61" t="n">
-        <v>67.92269973680702</v>
+        <v>16.88356541391079</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05843377121074094</v>
+        <v>0.05800430210312708</v>
       </c>
       <c r="H62" t="n">
-        <v>-19.91021257236303</v>
+        <v>-20.49884631656348</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0680399440531255</v>
+        <v>0.06075397396511949</v>
       </c>
       <c r="H63" t="n">
-        <v>4.046945532395418</v>
+        <v>-7.094788098448153</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.03579513733142891</v>
+        <v>-0.03076785143736567</v>
       </c>
       <c r="H64" t="n">
-        <v>-13.57069019924469</v>
+        <v>25.70934596055264</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.0003166914960423001</v>
+        <v>-0.00724295378970915</v>
       </c>
       <c r="H65" t="n">
-        <v>-99.35793250168835</v>
+        <v>85.31547175007083</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0279789849180543</v>
+        <v>0.04269997272669277</v>
       </c>
       <c r="H66" t="n">
-        <v>47.77131751833011</v>
+        <v>125.5203770365715</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.07068974773054358</v>
+        <v>0.0284804414586097</v>
       </c>
       <c r="H67" t="n">
-        <v>170.3252630773999</v>
+        <v>8.912297426866916</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01425436922215807</v>
+        <v>-0.01210071706313794</v>
       </c>
       <c r="H68" t="n">
-        <v>-2600.971099752784</v>
+        <v>-2223.106479811778</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.00879637558109664</v>
+        <v>-0.005801458495430863</v>
       </c>
       <c r="H69" t="n">
-        <v>-31.87603328779296</v>
+        <v>55.07031711170851</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07582215419321287</v>
+        <v>-0.05202482494236257</v>
       </c>
       <c r="H70" t="n">
-        <v>176.2385821498768</v>
+        <v>-89.53911335798223</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.0632386532396865</v>
+        <v>-0.0648519845702232</v>
       </c>
       <c r="H71" t="n">
-        <v>14.78746369211375</v>
+        <v>-17.71589752237616</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1252955008065331</v>
+        <v>-0.1502832689040412</v>
       </c>
       <c r="H72" t="n">
-        <v>-15.53158592603691</v>
+        <v>-1.314008120500677</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1639546993171845</v>
+        <v>-0.1390408027452464</v>
       </c>
       <c r="H73" t="n">
-        <v>13.23633194364583</v>
+        <v>3.970605545665582</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1354121129876777</v>
+        <v>0.131317032404888</v>
       </c>
       <c r="H74" t="n">
-        <v>7.426358780929862</v>
+        <v>4.177612518742702</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1346158322860068</v>
+        <v>0.1557779351866707</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.4114350778081799</v>
+        <v>15.24425283663594</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.04559335776640556</v>
+        <v>-0.05050397108185651</v>
       </c>
       <c r="H76" t="n">
-        <v>32.3927943784379</v>
+        <v>-46.65210430413831</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.06938144825028818</v>
+        <v>-0.06871238910363191</v>
       </c>
       <c r="H77" t="n">
-        <v>50.21853870910437</v>
+        <v>-48.76995137264375</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09692548007300361</v>
+        <v>0.08092177855064224</v>
       </c>
       <c r="H78" t="n">
-        <v>5.157711361182867</v>
+        <v>-12.20524236503486</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1070193167554522</v>
+        <v>0.09686152802431476</v>
       </c>
       <c r="H79" t="n">
-        <v>10.8957561225623</v>
+        <v>0.3700333276133108</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1781848583050959</v>
+        <v>-0.1572107916526153</v>
       </c>
       <c r="H80" t="n">
-        <v>9.711053711371084</v>
+        <v>3.202989462354445</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2183511399597783</v>
+        <v>-0.1896877460649929</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8790461983337716</v>
+        <v>12.3635493633186</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.164540218499897</v>
+        <v>0.1614688025380438</v>
       </c>
       <c r="H82" t="n">
-        <v>18.59072515915275</v>
+        <v>16.37703266802605</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1928114930999246</v>
+        <v>0.2027966317101158</v>
       </c>
       <c r="H83" t="n">
-        <v>17.12548140138625</v>
+        <v>23.19106467018088</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0635445178198311</v>
+        <v>0.08727317799695559</v>
       </c>
       <c r="H84" t="n">
-        <v>354.0506801225564</v>
+        <v>523.6013299892869</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,10 +3230,10 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08461954117860172</v>
+        <v>0.08356361445977097</v>
       </c>
       <c r="H85" t="n">
-        <v>273.774700906116</v>
+        <v>269.1105454638557</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1295766007657061</v>
+        <v>0.1248129826832061</v>
       </c>
       <c r="H2" t="n">
-        <v>54.50112707202018</v>
+        <v>48.82120987757491</v>
       </c>
       <c r="I2" t="n">
-        <v>-19.90039311705729</v>
+        <v>1.192961082138099</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08654585096470094</v>
+        <v>0.1128152156774726</v>
       </c>
       <c r="H3" t="n">
-        <v>-25.61959938488688</v>
+        <v>-3.042828234558583</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01514577055578493</v>
+        <v>-0.03401434637986158</v>
       </c>
       <c r="H4" t="n">
-        <v>1.812013998235429</v>
+        <v>-120.5104160203578</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01055607088495581</v>
+        <v>-0.0357385225873159</v>
       </c>
       <c r="H5" t="n">
-        <v>85.30852478071137</v>
+        <v>50.26069598359501</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0102587413743002</v>
+        <v>0.05021042629983954</v>
       </c>
       <c r="H6" t="n">
-        <v>-71.1392616846786</v>
+        <v>41.25611722415129</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01844930161503396</v>
+        <v>0.01782478001835862</v>
       </c>
       <c r="H7" t="n">
-        <v>-190.9052093462718</v>
+        <v>-12.17199474912758</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1285538300994089</v>
+        <v>-0.1362091962515835</v>
       </c>
       <c r="H8" t="n">
-        <v>8.890328583607266</v>
+        <v>3.464757877876811</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1578205217684469</v>
+        <v>-0.1162330924337188</v>
       </c>
       <c r="H9" t="n">
-        <v>-15.29254785890846</v>
+        <v>15.08829636322568</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08622343307281512</v>
+        <v>-0.08234249921738504</v>
       </c>
       <c r="H10" t="n">
-        <v>20.18353301597519</v>
+        <v>23.77608805466782</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09963493035276311</v>
+        <v>-0.09095939367564763</v>
       </c>
       <c r="H11" t="n">
-        <v>-49.73495668883047</v>
+        <v>-36.69704815614066</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3428913147196478</v>
+        <v>-0.3741618449121005</v>
       </c>
       <c r="H12" t="n">
-        <v>17.41465533710561</v>
+        <v>9.883150738201937</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4179487337133465</v>
+        <v>-0.4062934356010162</v>
       </c>
       <c r="H13" t="n">
-        <v>6.894786481650642</v>
+        <v>9.49120305582502</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04262981171984808</v>
+        <v>-0.03086123641758959</v>
       </c>
       <c r="H14" t="n">
-        <v>15.97668886031958</v>
+        <v>39.17253759619449</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.010575109525961</v>
+        <v>-0.001357785827895729</v>
       </c>
       <c r="H15" t="n">
-        <v>112.7886391353961</v>
+        <v>98.35800915976466</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1226285622704251</v>
+        <v>0.1208821602501296</v>
       </c>
       <c r="H16" t="n">
-        <v>-16.02088291793515</v>
+        <v>-17.21686285131582</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1111008878412645</v>
+        <v>0.1443809287207572</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.395251913725776</v>
+        <v>17.74521274660619</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1473807317572547</v>
+        <v>0.1363484186363655</v>
       </c>
       <c r="H18" t="n">
-        <v>6.444989758877581</v>
+        <v>-1.523042718420635</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1324612766226856</v>
+        <v>0.1433937589176967</v>
       </c>
       <c r="H19" t="n">
-        <v>38.83848242368666</v>
+        <v>50.29729732916839</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04549785822051627</v>
+        <v>0.01360042559572368</v>
       </c>
       <c r="H20" t="n">
-        <v>77.48991834845495</v>
+        <v>-46.94391070477423</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06738738007493135</v>
+        <v>0.03006223478057242</v>
       </c>
       <c r="H21" t="n">
-        <v>-10.34991526230334</v>
+        <v>-60.00613330736326</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07912888497988632</v>
+        <v>0.09743356845847011</v>
       </c>
       <c r="H24" t="n">
-        <v>-21.21501696425947</v>
+        <v>-2.989887446746384</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1737047210155188</v>
+        <v>0.1520578091251967</v>
       </c>
       <c r="H25" t="n">
-        <v>14.62137498416663</v>
+        <v>0.3373717024817708</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08933131092336503</v>
+        <v>0.06510234227117315</v>
       </c>
       <c r="H26" t="n">
-        <v>12.89938281290031</v>
+        <v>-17.72185825869026</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07132575000409781</v>
+        <v>0.06249001417556976</v>
       </c>
       <c r="H27" t="n">
-        <v>-28.5689757215738</v>
+        <v>-37.41775278244013</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2573594666503971</v>
+        <v>-0.2392594294414418</v>
       </c>
       <c r="H28" t="n">
-        <v>-20.75847003798419</v>
+        <v>-12.26555221595133</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2338037909518537</v>
+        <v>-0.2016837271915152</v>
       </c>
       <c r="H29" t="n">
-        <v>-13.88026715952888</v>
+        <v>1.764652143604634</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07063171359994788</v>
+        <v>0.06550112217549428</v>
       </c>
       <c r="H30" t="n">
-        <v>60.0477783006878</v>
+        <v>48.42212578568261</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03297166118520949</v>
+        <v>0.02752753816999139</v>
       </c>
       <c r="H31" t="n">
-        <v>25.20989304137859</v>
+        <v>4.535834291031299</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.097275197777203</v>
+        <v>0.09832908843531273</v>
       </c>
       <c r="H32" t="n">
-        <v>2.437528024332915</v>
+        <v>3.547347960879966</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1263673864480193</v>
+        <v>0.1607910243468573</v>
       </c>
       <c r="H33" t="n">
-        <v>21.54814009649536</v>
+        <v>54.65897098069754</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.009951934715990065</v>
+        <v>0.02765813665890893</v>
       </c>
       <c r="H34" t="n">
-        <v>-78.56465734798552</v>
+        <v>-40.42749944416458</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01078005874187858</v>
+        <v>0.01946275077790345</v>
       </c>
       <c r="H35" t="n">
-        <v>42.28231439995581</v>
+        <v>156.8822018113669</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04612902812932372</v>
+        <v>0.04525559492812234</v>
       </c>
       <c r="H36" t="n">
-        <v>-20.10386649301405</v>
+        <v>-21.61666523347264</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06105204567560074</v>
+        <v>0.06540431242063113</v>
       </c>
       <c r="H37" t="n">
-        <v>-13.18728873846296</v>
+        <v>-6.998600512074622</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02943902727003059</v>
+        <v>0.01182934197795375</v>
       </c>
       <c r="H38" t="n">
-        <v>-43.80407723869907</v>
+        <v>-77.41906408752708</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.006968889235226058</v>
+        <v>0.03424010456724188</v>
       </c>
       <c r="H39" t="n">
-        <v>-133.6055290709452</v>
+        <v>65.11337611887383</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.001498239553577904</v>
+        <v>0.005189021683586412</v>
       </c>
       <c r="H40" t="n">
-        <v>82.35494756051803</v>
+        <v>161.1120961917191</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01033712871504971</v>
+        <v>0.04550105144361731</v>
       </c>
       <c r="H41" t="n">
-        <v>-70.7626105939442</v>
+        <v>28.6945336672844</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.143523481285987</v>
+        <v>0.1399546251547427</v>
       </c>
       <c r="H42" t="n">
-        <v>7.358546328619962</v>
+        <v>4.688967783887578</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1416298539810153</v>
+        <v>0.1422085549869157</v>
       </c>
       <c r="H43" t="n">
-        <v>-4.931307066158563</v>
+        <v>-4.542855431958436</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>0.004278316780011757</v>
+        <v>-0.007153036006435855</v>
       </c>
       <c r="H44" t="n">
-        <v>150.2652434244137</v>
+        <v>15.96015101852601</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01443886878337824</v>
+        <v>0.008495153769514397</v>
       </c>
       <c r="H45" t="n">
-        <v>-31.50315331535647</v>
+        <v>177.3702930160298</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.007487949896170274</v>
+        <v>-0.002422132313178876</v>
       </c>
       <c r="H46" t="n">
-        <v>-127.3867447873703</v>
+        <v>26.44705296175452</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02997099399722834</v>
+        <v>0.000251761457700876</v>
       </c>
       <c r="H47" t="n">
-        <v>-223.0161670814284</v>
+        <v>102.7133908569362</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03631718205628851</v>
+        <v>0.04620871750503409</v>
       </c>
       <c r="H48" t="n">
-        <v>-27.75878990861587</v>
+        <v>-8.082800472770577</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05966364319624113</v>
+        <v>0.06375211059374096</v>
       </c>
       <c r="H49" t="n">
-        <v>-9.689187014783474</v>
+        <v>-3.500613961721503</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1477215052010647</v>
+        <v>0.1290134155123612</v>
       </c>
       <c r="H50" t="n">
-        <v>-8.394127393011752</v>
+        <v>-19.99549090749029</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.172421096467501</v>
+        <v>0.1587331114160908</v>
       </c>
       <c r="H51" t="n">
-        <v>0.7633096485598335</v>
+        <v>-7.235982227304513</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1686432639670065</v>
+        <v>-0.1634145080841927</v>
       </c>
       <c r="H52" t="n">
-        <v>-5.118874947397918</v>
+        <v>-1.859682004574498</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1317493171948181</v>
+        <v>-0.1585205914821631</v>
       </c>
       <c r="H53" t="n">
-        <v>-4.517741789952728</v>
+        <v>-25.75559859960287</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09058584982275487</v>
+        <v>0.1129299203335908</v>
       </c>
       <c r="H54" t="n">
-        <v>-3.346633821976666</v>
+        <v>20.49406131106061</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1089275019187739</v>
+        <v>0.0919386737899725</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.672813319448658</v>
+        <v>-18.69643903214667</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>0.004812471240225346</v>
+        <v>-0.01697517127572675</v>
       </c>
       <c r="H56" t="n">
-        <v>165.9172970603223</v>
+        <v>-132.5120196623836</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.03797900105718639</v>
+        <v>-0.01399544675128893</v>
       </c>
       <c r="H57" t="n">
-        <v>-66.08366322420586</v>
+        <v>38.79736169433686</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04343918477082789</v>
+        <v>0.03136438773211132</v>
       </c>
       <c r="H58" t="n">
-        <v>-22.96374067631849</v>
+        <v>-44.37752182490204</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06198573640409088</v>
+        <v>0.07474663768395225</v>
       </c>
       <c r="H59" t="n">
-        <v>-13.69284280543179</v>
+        <v>4.075069243325852</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06911924485010899</v>
+        <v>0.05278052175225122</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.22146677759126</v>
+        <v>-24.57118805758202</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.05555100145432924</v>
+        <v>0.07197855302671317</v>
       </c>
       <c r="H61" t="n">
-        <v>16.88356541391079</v>
+        <v>51.44839320337438</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05800430210312708</v>
+        <v>0.05945020004304512</v>
       </c>
       <c r="H62" t="n">
-        <v>-20.49884631656348</v>
+        <v>-18.51708720277197</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06075397396511949</v>
+        <v>0.0661072257244885</v>
       </c>
       <c r="H63" t="n">
-        <v>-7.094788098448153</v>
+        <v>1.091425191106748</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.03076785143736567</v>
+        <v>-0.03198310920447313</v>
       </c>
       <c r="H64" t="n">
-        <v>25.70934596055264</v>
+        <v>22.77503985443016</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.00724295378970915</v>
+        <v>-0.01380218701311709</v>
       </c>
       <c r="H65" t="n">
-        <v>85.31547175007083</v>
+        <v>72.01713403268</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04269997272669277</v>
+        <v>0.04908219371731174</v>
       </c>
       <c r="H66" t="n">
-        <v>125.5203770365715</v>
+        <v>159.2281476093465</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0284804414586097</v>
+        <v>0.00761273890300986</v>
       </c>
       <c r="H67" t="n">
-        <v>8.912297426866916</v>
+        <v>-70.88806067691603</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01210071706313794</v>
+        <v>-0.006687354134776244</v>
       </c>
       <c r="H68" t="n">
-        <v>-2223.106479811778</v>
+        <v>-1273.315996255327</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.005801458495430863</v>
+        <v>0.02249636686908364</v>
       </c>
       <c r="H69" t="n">
-        <v>55.07031711170851</v>
+        <v>274.2242283320046</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05202482494236257</v>
+        <v>-0.0457433628228579</v>
       </c>
       <c r="H70" t="n">
-        <v>-89.53911335798223</v>
+        <v>-66.6542163488776</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.0648519845702232</v>
+        <v>-0.06137741277376518</v>
       </c>
       <c r="H71" t="n">
-        <v>-17.71589752237616</v>
+        <v>-11.40903829152097</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1502832689040412</v>
+        <v>-0.1740632958065455</v>
       </c>
       <c r="H72" t="n">
-        <v>-1.314008120500677</v>
+        <v>-17.34539908155569</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1390408027452464</v>
+        <v>-0.1705668012824217</v>
       </c>
       <c r="H73" t="n">
-        <v>3.970605545665582</v>
+        <v>-17.80302125538277</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.131317032404888</v>
+        <v>0.1495384657514329</v>
       </c>
       <c r="H74" t="n">
-        <v>4.177612518742702</v>
+        <v>18.63320436351996</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1557779351866707</v>
+        <v>0.1479259838466666</v>
       </c>
       <c r="H75" t="n">
-        <v>15.24425283663594</v>
+        <v>9.435392522727865</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.05050397108185651</v>
+        <v>-0.04372318294825396</v>
       </c>
       <c r="H76" t="n">
-        <v>-46.65210430413831</v>
+        <v>-26.96222987779667</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.06871238910363191</v>
+        <v>-0.03329774771581427</v>
       </c>
       <c r="H77" t="n">
-        <v>-48.76995137264375</v>
+        <v>27.90667923030474</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08092177855064224</v>
+        <v>0.08852303452429428</v>
       </c>
       <c r="H78" t="n">
-        <v>-12.20524236503486</v>
+        <v>-3.95838425241352</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09686152802431476</v>
+        <v>0.0882313592585698</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3700333276133108</v>
+        <v>-8.572736256026831</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1572107916526153</v>
+        <v>-0.1927557997519705</v>
       </c>
       <c r="H80" t="n">
-        <v>3.202989462354445</v>
+        <v>-18.68259795429503</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1896877460649929</v>
+        <v>-0.1836457056487156</v>
       </c>
       <c r="H81" t="n">
-        <v>12.3635493633186</v>
+        <v>15.15499471321745</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1614688025380438</v>
+        <v>0.1515716080431263</v>
       </c>
       <c r="H82" t="n">
-        <v>16.37703266802605</v>
+        <v>9.243728221890441</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2027966317101158</v>
+        <v>0.2034107166727244</v>
       </c>
       <c r="H83" t="n">
-        <v>23.19106467018088</v>
+        <v>23.56409739613777</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.08727317799695559</v>
+        <v>0.05423850344719331</v>
       </c>
       <c r="H84" t="n">
-        <v>523.6013299892869</v>
+        <v>287.5555315228483</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,14 +3230,14 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08356361445977097</v>
+        <v>0.05490533035735638</v>
       </c>
       <c r="H85" t="n">
-        <v>269.1105454638557</v>
+        <v>142.5234543538503</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>